--- a/Assets/StreamingAssets/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/StreamingAssets/excel/TAKAMORIPuzzleScripts.xlsx
@@ -86,7 +86,7 @@
 Calli：「私は彼女を幸せにしたいのですが、どうすればいいですか？」</t>
   </si>
   <si>
-    <t>彼女にチョコレートを作る</t>
+    <t>彼女にチョコレ一トを作る</t>
   </si>
   <si>
     <t>彼女にプレゼントを買う</t>
@@ -143,7 +143,7 @@
   <si>
     <t>ばか... Calliは心の中で叫んだ。これもまた彼女のために難しすぎるのか！&lt;block&gt;
 おお、すでに多くの材料を浪費してしまった。&lt;block&gt;
-完全なチョコレートを作ることはできない。&lt;block&gt;
+完全なチョコレ一トを作ることはできない。&lt;block&gt;
 ... ここまでやれるのが限界かもしれない。</t>
   </si>
   <si>
@@ -207,7 +207,7 @@
     <t>このおもちゃ屋さんのオ一ナ一は明らかにholoファンです。&lt;block&gt;
 彼は自分が収集したSmol HoloMythの周りを店内に並べました。&lt;block&gt;
 「このように選ぶのは最高です」と心の中で思いながら、&lt;block&gt;
-CalliはKiaraと自分のsmolバージョンのおもちゃを買いました。</t>
+CalliはKiaraと自分のsmolバ一ジョンのおもちゃを買いました。</t>
   </si>
   <si>
     <t>Calli: 找不到適合的禮物，該怎麼辦?&lt;block&gt;

--- a/Assets/StreamingAssets/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/StreamingAssets/excel/TAKAMORIPuzzleScripts.xlsx
@@ -77,13 +77,13 @@
     <t>pick up a gift for her</t>
   </si>
   <si>
-    <t>聖誕の翌日、楽しい雰囲気が溢れる場所がたくさんありますが、TAKAMORIにとっては例外です。&lt;block&gt;
-CalliとKiaraの間には不思議で、困った気持ちがありますが、彼らは以前口論したことがありません。&lt;block&gt;
-Kiaraは最近いつも遅くなって帰宅し、しばしばため息をつきますが、&lt;block&gt;
-Calliが話をしようとすると、彼女の反応はいつもちょうどいいです。&lt;block&gt;
-Calliは彼女に、彼らの間でこのように続けることはできないと伝えます。&lt;block&gt;
-彼女は、自分が高慢であり、Kiaraが我慢できないと懸念し、彼女を離れようとしているのでしょう。&lt;block&gt;
-Calli：「私は彼女を幸せにしたいのですが、どうすればいいですか？」</t>
+    <t>クリスマス・イヴ、どこでも楽しい雰囲気が溢れているが、TAKAMORIには違う。&lt;block&gt;
+ カリオぺ とキアラの間には気まずい空気になっている。彼女らは以前に喧嘩したことがないのに。&lt;block&gt;
+ 最近キアラの帰宅時間が遅いし、しばしばため息をつく。&lt;block&gt;
+ カリオぺ がキアラに話しをかけでも、「大丈夫」としか答えない。&lt;block&gt;
+ このまま続けるはいけない、カリは自分に言い聞かせる。&lt;block&gt;
+ キアラは自分のツンデレのせいで、キアラが我慢できなくて離れようとしているではないか。&lt;block&gt;
+ カリオぺ ：「私は彼女を幸せにさせたいが、どうすればいいか？」</t>
   </si>
   <si>
     <t>彼女にチョコレ一トを作る</t>
@@ -116,10 +116,10 @@
     <t>pink &amp; orange</t>
   </si>
   <si>
-    <t>ス一パ一では、Calliはチョコレ一トを作るための原料を選ぶ。&lt;block&gt;
-棚に並んでいる種類は五色八戒ですが、Calliはほとんどチョコレ一トを作ったことがありません。&lt;block&gt;
-見て見ぬ振りをしながら、最後には簡単に作れそうな2種類だけが残っています。&lt;block&gt;
-1つは黒と白、もう1つはピンクとオレンジ。どちらを選ぶかな？</t>
+    <t>カリオぺ はス一パ一でチョコレ一トの材料を選んでいる。&lt;block&gt;
+ 様々な材料が棚に並んでいるが、カリオぺはチョコレ一トを作ったことがない。&lt;block&gt;
+ 見回した結果、簡単に作れそうな2種類がある。&lt;block&gt;
+ 1つは黒と白、もう1つはピンクとオレンジ。どちらを選ぶかな？</t>
   </si>
   <si>
     <t>黒と白の組</t>
@@ -141,10 +141,10 @@
 I guess this is the best I can do</t>
   </si>
   <si>
-    <t>ばか... Calliは心の中で叫んだ。これもまた彼女のために難しすぎるのか！&lt;block&gt;
-おお、すでに多くの材料を浪費してしまった。&lt;block&gt;
-完全なチョコレ一トを作ることはできない。&lt;block&gt;
-... ここまでやれるのが限界かもしれない。</t>
+    <t>バカ... カリオぺ は心の中で叫ぶ。これは難しすぎるだろう！&lt;block&gt;
+ まったく、もうたくさんの材料を無駄にした。&lt;block&gt;
+ もう一つ完全なチョコレ一トも作れないだ。&lt;block&gt;
+ ... これは限界だ。</t>
   </si>
   <si>
     <t>"哇，比我想像中的簡單得多"Calli心想&lt;block&gt;
@@ -155,8 +155,8 @@
 T A K A M O R I, these colorful characters are shining on the finished chocolate on the plate</t>
   </si>
   <si>
-    <t>わあ、想像以上の簡単だ」とCalliは思った。
-TAKAMORIという色の文字が入ったチョコレ一トが皿の上で輝いている。</t>
+    <t>「わあ、想像より簡単だ」とカリオぺが思った。
+ カラフルなTAKAMORIの文字が入ったチョコレ一トは皿の上で輝いている。</t>
   </si>
   <si>
     <t>走在大街上，此刻的死神已化為禮物獵人&lt;block&gt;
@@ -183,9 +183,9 @@
     <t>nah</t>
   </si>
   <si>
-    <t>大通りを歩いているとき、死神は今やプレゼントハンタ一になっていました。&lt;block&gt;
-彼女はすでに街中の店を訪れており、適切なプレゼントを見つけることができませんでした。&lt;block&gt;
-彼女があきらめようとしているとき、おもちゃ屋さんが彼女の注意を引きました。見に行く？</t>
+    <t>大通りに歩いている。死神はプレゼントハンタ一になっている。&lt;block&gt;
+ 彼女はすでに全街中の店を訪れたけど、一つ気に入りのプレゼントも見つからなかった。&lt;block&gt;
+ もうあきらめたときに、あるおもちゃ屋が彼女の注意を引いた。見に行く？</t>
   </si>
   <si>
     <t>はい</t>
@@ -204,10 +204,10 @@
 While thinking to herself, Calli grabs some smol version pusheens of Kiara's and hers</t>
   </si>
   <si>
-    <t>このおもちゃ屋さんのオ一ナ一は明らかにholoファンです。&lt;block&gt;
-彼は自分が収集したSmol HoloMythの周りを店内に並べました。&lt;block&gt;
-「このように選ぶのは最高です」と心の中で思いながら、&lt;block&gt;
-CalliはKiaraと自分のsmolバ一ジョンのおもちゃを買いました。</t>
+    <t>このおもちゃ屋さんのオ一ナ一は明らかにholoファンだ。&lt;block&gt;
+ 彼は自分で集めたSmol HoloMythの周辺グッズを店内に並べた。&lt;block&gt;
+ 「こで絶対行ける」と心の中で思いながら、&lt;block&gt;
+ カリオぺはキアラと自分のsmolバ一ジョンぬいぐるみを買った。</t>
   </si>
   <si>
     <t>Calli: 找不到適合的禮物，該怎麼辦?&lt;block&gt;
@@ -220,10 +220,10 @@
 AAAAA stop being a tsundere this time, I guess I'll be the fucking gift!</t>
   </si>
   <si>
-    <t>Calli：適切なプレゼントが見つからない、どうするべきか？&lt;block&gt;
-ああ...待って...まだ1つの方法がある！&lt;block&gt;
-でも...あああああ！&lt;block&gt;
-今は傲慢でいられない時ではない、私は自分自身がそのプレゼントになると思う！</t>
+    <t>カリオぺ：気に入りのプレゼントが見つからない。どうするべきか？&lt;block&gt;
+ ああ...待って...まだ一つ方法がある！&lt;block&gt;
+ でも...あああああ！&lt;block&gt;
+ 今はツンデレの時ではない、私自身がそのプレゼントになると思う！</t>
   </si>
   <si>
     <t>當Kiara回來時，Calli把禮物送給她&lt;block&gt;
@@ -249,18 +249,18 @@
 The end.</t>
   </si>
   <si>
-    <t>Kiaraが帰ってきたとき、Calliはプレゼントを彼女に渡しました。&lt;block&gt;
-Kiaraは驚いて喜ぶと言いました。
-「え！何？！あなたはいつもそのような小さなことに気を配ることはありませんよね？」&lt;block&gt;
-Calliは、懸念と傲慢の理由をKiaraに一生懸命に伝えました。&lt;block&gt;
-Kiaraは笑って言いました。
-「あなたこのちっちゃなバカ、私がすべてが大丈夫だと言ったことはありませんか？&lt;block&gt;
-最近家に遅く帰る理由は、クリスマスの意外をひそかにあなたに用意しているからです！&lt;block&gt;
-これをあなたに贈ります。魂を収めるときに、それはあなたを守ることができます。&lt;block&gt;
-私があなたが優雅であるからには厭わないと心配しないでください。&lt;block&gt;
-いずれにしても、私はあなたを永遠に愛します！"&lt;block&gt;
-このサンタクロ一スの日以降、TAKAMORIは幸福で幸せな愛する日々を過ごしました、&lt;block&gt;
-おしまい。</t>
+    <t>キアラが帰ってきたとき、カリオぺはプレゼントを彼女に渡した。&lt;block&gt;
+ キアラは驚いて喜ぶと言った：
+ 「え！何？！あなたは普段そんなことを気にしていないじゃないか」&lt;block&gt;
+ カリオぺは、心配していることとツンデレの理由をキアラに告白した。&lt;block&gt;
+ キアラは笑った
+ 「このバカ、私が大丈夫だ言ったじゃん。&lt;block&gt;
+ 最近家に遅く帰る理由は、クリスマスのサプライズをひそかに用意しているからだ！&lt;block&gt;
+ 編んだスカ一フをあなたに贈る。魂を収めるときに、それはあなたを守れる。&lt;block&gt;
+ ツンデレで嫌いなんて心配の必要がない。&lt;block&gt;
+ いずれにしても、私はあなたを永遠に愛してる！"&lt;block&gt;
+ このクリスマス以降、TAKAMORIは幸せな日々を過ごしていく、&lt;block&gt;
+ おしまい。</t>
   </si>
   <si>
     <t>很久很久以前有個死神，她的名字叫做Mori Calliope，死神的首席大弟子
@@ -593,18 +593,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -619,17 +613,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -922,7 +913,7 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -954,7 +945,7 @@
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -974,7 +965,7 @@
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="1"/>
@@ -990,7 +981,7 @@
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="1"/>
@@ -1018,7 +1009,7 @@
       <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1038,7 +1029,7 @@
       <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="1"/>
@@ -1054,7 +1045,7 @@
       <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="1"/>
@@ -1070,7 +1061,7 @@
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1"/>
@@ -1155,10 +1146,10 @@
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/StreamingAssets/excel/TAKAMORIPuzzleScripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -362,6 +362,24 @@
   </si>
   <si>
     <t>chioceId_3</t>
+  </si>
+  <si>
+    <t>puzzleGridX</t>
+  </si>
+  <si>
+    <t>puzzleGridY</t>
+  </si>
+  <si>
+    <t>puzzleRectX</t>
+  </si>
+  <si>
+    <t>puzzleRectY</t>
+  </si>
+  <si>
+    <t>puzzleRectW</t>
+  </si>
+  <si>
+    <t>puzzleRectH</t>
   </si>
   <si>
     <t>zh_title</t>
@@ -1152,6 +1170,24 @@
       <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -1172,6 +1208,24 @@
       <c r="F2" s="1">
         <v>3.0</v>
       </c>
+      <c r="H2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -1192,6 +1246,24 @@
       <c r="F3" s="1">
         <v>5.0</v>
       </c>
+      <c r="H3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -1212,6 +1284,24 @@
       <c r="F4" s="1">
         <v>7.0</v>
       </c>
+      <c r="H4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -1226,6 +1316,24 @@
       <c r="D5" s="1">
         <v>8.0</v>
       </c>
+      <c r="H5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -1240,6 +1348,24 @@
       <c r="D6" s="1">
         <v>8.0</v>
       </c>
+      <c r="H6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -1254,6 +1380,24 @@
       <c r="D7" s="1">
         <v>8.0</v>
       </c>
+      <c r="H7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -1268,6 +1412,24 @@
       <c r="D8" s="1">
         <v>8.0</v>
       </c>
+      <c r="H8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -1282,6 +1444,24 @@
       <c r="D9" s="1">
         <v>0.0</v>
       </c>
+      <c r="H9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -1296,6 +1476,24 @@
       <c r="D10" s="1">
         <v>2.0</v>
       </c>
+      <c r="H10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -1310,6 +1508,24 @@
       <c r="D11" s="1">
         <v>3.0</v>
       </c>
+      <c r="H11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -1323,6 +1539,24 @@
       </c>
       <c r="D12" s="1">
         <v>0.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1345,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -1365,13 +1599,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1">
         <v>1.0</v>
@@ -1385,13 +1619,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1">
         <v>2.0</v>
@@ -1405,13 +1639,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1">
         <v>3.0</v>
@@ -1446,16 +1680,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
@@ -1463,16 +1697,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -1480,16 +1714,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -1497,16 +1731,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -1514,16 +1748,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -1531,16 +1765,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1548,16 +1782,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1565,16 +1799,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1582,16 +1816,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1599,16 +1833,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -1616,16 +1850,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -1633,16 +1867,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -1650,16 +1884,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -1667,16 +1901,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
